--- a/data/trans_orig/P05A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>595717</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>576891</v>
+        <v>574368</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>613508</v>
+        <v>612753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8505580956549814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8236785994456265</v>
+        <v>0.8200759018765413</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8759598467223997</v>
+        <v>0.8748808011204857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>538</v>
@@ -764,19 +764,19 @@
         <v>577069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>556042</v>
+        <v>556917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>595974</v>
+        <v>595502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8311480714965823</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8008627390326385</v>
+        <v>0.8021231634676939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8583765105973962</v>
+        <v>0.8576968587397994</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1106</v>
@@ -785,19 +785,19 @@
         <v>1172787</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1142796</v>
+        <v>1145263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1198226</v>
+        <v>1198543</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8408953915520979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8193916085860279</v>
+        <v>0.8211604741615434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8591356115113618</v>
+        <v>0.8593628077344903</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>92348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75676</v>
+        <v>75413</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110647</v>
+        <v>110655</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1318529751706022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1080492118680066</v>
+        <v>0.1076739991247477</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1579799581064566</v>
+        <v>0.1579918765998324</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -835,19 +835,19 @@
         <v>108086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>89887</v>
+        <v>90276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127316</v>
+        <v>127551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1556753349037186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1294636765867011</v>
+        <v>0.1300234332907244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1833724772662561</v>
+        <v>0.183710530137483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>191</v>
@@ -856,19 +856,19 @@
         <v>200434</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174761</v>
+        <v>174640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>228703</v>
+        <v>226638</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.143712229505118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1253044890588672</v>
+        <v>0.1252181989767187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1639811554138372</v>
+        <v>0.1625005199061789</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>12319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6774</v>
+        <v>6607</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20880</v>
+        <v>20408</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01758892917441638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00967157924362662</v>
+        <v>0.009433709516275809</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02981284303851987</v>
+        <v>0.02913805926428272</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -906,19 +906,19 @@
         <v>9149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4033</v>
+        <v>4235</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17384</v>
+        <v>16930</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01317659359969907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00580881670322279</v>
+        <v>0.006099352932547509</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02503798632357283</v>
+        <v>0.02438362876640524</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -927,19 +927,19 @@
         <v>21468</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13569</v>
+        <v>13178</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31430</v>
+        <v>31965</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0153923789427841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009729156640074427</v>
+        <v>0.009448849122245102</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02253561777539442</v>
+        <v>0.0229187938610037</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>734276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>699230</v>
+        <v>701350</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>762076</v>
+        <v>762154</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7274045010956228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.692686651778172</v>
+        <v>0.6947873868271269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7549451517774446</v>
+        <v>0.7550216067270936</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>689</v>
@@ -1052,19 +1052,19 @@
         <v>752826</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>724909</v>
+        <v>717951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>785038</v>
+        <v>781295</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7322799815016201</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.705124817851417</v>
+        <v>0.6983571209482371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7636131252140624</v>
+        <v>0.7599722340668488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1369</v>
@@ -1073,19 +1073,19 @@
         <v>1487101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1441885</v>
+        <v>1441379</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1527407</v>
+        <v>1528411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7298645088288565</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7076725982115635</v>
+        <v>0.707424157339228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7496465437327111</v>
+        <v>0.7501390613975999</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>242635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>215477</v>
+        <v>215173</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>273394</v>
+        <v>272984</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.240364466670497</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2134607971822379</v>
+        <v>0.2131596894179469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2708359816304455</v>
+        <v>0.2704290835552434</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>223</v>
@@ -1123,19 +1123,19 @@
         <v>248902</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>217702</v>
+        <v>222837</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>276426</v>
+        <v>283111</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2421088644560957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2117606665285716</v>
+        <v>0.2167558259104368</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2688820833918403</v>
+        <v>0.275384603029497</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>443</v>
@@ -1144,19 +1144,19 @@
         <v>491537</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>451592</v>
+        <v>450892</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>532053</v>
+        <v>534901</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2412446326613458</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2216397574685103</v>
+        <v>0.2212965310982011</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2611298106990285</v>
+        <v>0.2625276046709064</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>32535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22131</v>
+        <v>22297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46244</v>
+        <v>47671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03223103223388015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02192409252110705</v>
+        <v>0.02208804476597429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04581140021876186</v>
+        <v>0.04722480866803139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1194,19 +1194,19 @@
         <v>26330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18108</v>
+        <v>17491</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38870</v>
+        <v>36864</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02561115404228418</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01761373193689071</v>
+        <v>0.01701359775816929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0378092718484958</v>
+        <v>0.03585747146391226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1215,19 +1215,19 @@
         <v>58865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45029</v>
+        <v>45124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77662</v>
+        <v>78211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02889085850979782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02210018518576365</v>
+        <v>0.02214665171999344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03811642423676335</v>
+        <v>0.03838575751742371</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>525414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>498364</v>
+        <v>496860</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>552203</v>
+        <v>549988</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6952452464707328</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6594522070127856</v>
+        <v>0.6574618520390523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7306940578126033</v>
+        <v>0.7277635154532187</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>488</v>
@@ -1340,19 +1340,19 @@
         <v>539320</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>513422</v>
+        <v>511970</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>568129</v>
+        <v>565628</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6979981907465126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.664480164774906</v>
+        <v>0.66260143274904</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7352830256290964</v>
+        <v>0.7320465000909659</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>964</v>
@@ -1361,19 +1361,19 @@
         <v>1064734</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1028472</v>
+        <v>1025357</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1106079</v>
+        <v>1101403</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6966369771839369</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6729118664800358</v>
+        <v>0.6708732487951821</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7236884879280892</v>
+        <v>0.7206287851842541</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>207632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>182538</v>
+        <v>183892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234989</v>
+        <v>235118</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2747464331598012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2415407680797928</v>
+        <v>0.2433321207239939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3109458641515117</v>
+        <v>0.3111168677657118</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -1411,19 +1411,19 @@
         <v>205474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177711</v>
+        <v>183839</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>229935</v>
+        <v>236434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.26592847283807</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2299968193643219</v>
+        <v>0.2379273828836007</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2975859750526549</v>
+        <v>0.3059972720665036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>378</v>
@@ -1432,19 +1432,19 @@
         <v>413107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>375153</v>
+        <v>375883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>448917</v>
+        <v>450049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2702885782313383</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2454561563489532</v>
+        <v>0.245933644405354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2937189009724321</v>
+        <v>0.2944595971917492</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>22678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14458</v>
+        <v>14160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33484</v>
+        <v>33476</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03000832036946596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01913190687930996</v>
+        <v>0.01873644551612118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04430743733788267</v>
+        <v>0.04429724164876075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1482,19 +1482,19 @@
         <v>27873</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18840</v>
+        <v>18844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41321</v>
+        <v>42475</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03607333641541735</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02438252105945138</v>
+        <v>0.02438868022014473</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05347785596326895</v>
+        <v>0.05497218095758211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1503,19 +1503,19 @@
         <v>50551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37486</v>
+        <v>38335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66815</v>
+        <v>68543</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03307444458472474</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02452668724134709</v>
+        <v>0.02508208324670032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04371586798627256</v>
+        <v>0.0448463718319523</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>571572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>540213</v>
+        <v>541840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>600960</v>
+        <v>602789</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6076324727479409</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.57429559234587</v>
+        <v>0.5760244470055934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6388749689318513</v>
+        <v>0.6408189252002641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>611</v>
@@ -1628,19 +1628,19 @@
         <v>640328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>608782</v>
+        <v>609532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>672481</v>
+        <v>671000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6140877645502238</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5838350733679213</v>
+        <v>0.5845543191683881</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6449229735210255</v>
+        <v>0.6435031884098276</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1156</v>
@@ -1649,19 +1649,19 @@
         <v>1211900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1167345</v>
+        <v>1170845</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1254907</v>
+        <v>1255907</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6110262316865658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5885623106562091</v>
+        <v>0.5903267866361309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6327102137863883</v>
+        <v>0.6332142078763061</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>302468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>274768</v>
+        <v>273909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334061</v>
+        <v>330145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3215508661431153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2921029666029625</v>
+        <v>0.2911900397653769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3551371621357829</v>
+        <v>0.3509738394200682</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>331</v>
@@ -1699,19 +1699,19 @@
         <v>347380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>316697</v>
+        <v>318557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>379339</v>
+        <v>378858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3331442761702467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3037194219088081</v>
+        <v>0.3055024634137729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3637944650630033</v>
+        <v>0.3633329774399131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -1720,19 +1720,19 @@
         <v>649848</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>603062</v>
+        <v>605400</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>691597</v>
+        <v>688859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3276459026052633</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3040569864465722</v>
+        <v>0.3052357127715932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3486952504858362</v>
+        <v>0.3473148909936313</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>66614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51338</v>
+        <v>52243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84524</v>
+        <v>85573</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07081666110894384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05457709923370685</v>
+        <v>0.05553953006069103</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08985629013237652</v>
+        <v>0.09097224639579085</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -1770,19 +1770,19 @@
         <v>55023</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41754</v>
+        <v>41647</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71611</v>
+        <v>71848</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05276795927952949</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04004304661601377</v>
+        <v>0.03994078560812969</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06867677856199707</v>
+        <v>0.06890392136579454</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -1791,19 +1791,19 @@
         <v>121637</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>103830</v>
+        <v>100992</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>145891</v>
+        <v>148085</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06132786570817091</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0523501155845899</v>
+        <v>0.05091881824139386</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07355666317107017</v>
+        <v>0.07466272268222873</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>2426978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2374976</v>
+        <v>2367698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2480862</v>
+        <v>2480940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7125161801688694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.697249261192701</v>
+        <v>0.6951125853268715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7283354203327935</v>
+        <v>0.7283583767048603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2326</v>
@@ -1916,19 +1916,19 @@
         <v>2509543</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2453862</v>
+        <v>2459017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2563138</v>
+        <v>2571961</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7093596897607507</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6936206327762696</v>
+        <v>0.6950777547539883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7245090297425106</v>
+        <v>0.7270032250265086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4595</v>
@@ -1937,19 +1937,19 @@
         <v>4936521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4858382</v>
+        <v>4854746</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5011183</v>
+        <v>5008549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7109080357925113</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6996552484485827</v>
+        <v>0.6991316048936388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7216600486350059</v>
+        <v>0.7212807684096333</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>845083</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>794507</v>
+        <v>792939</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>901405</v>
+        <v>898013</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2481008856469084</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2332524918308294</v>
+        <v>0.2327923033277347</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2646359452724197</v>
+        <v>0.263640058229292</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>843</v>
@@ -1987,19 +1987,19 @@
         <v>909841</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>856449</v>
+        <v>851407</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>963554</v>
+        <v>959296</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2571802222461838</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2420880452281781</v>
+        <v>0.2406630029686966</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2723629713012654</v>
+        <v>0.2711592362373459</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1640</v>
@@ -2008,19 +2008,19 @@
         <v>1754925</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1683535</v>
+        <v>1688952</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1829479</v>
+        <v>1833061</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2527265559976351</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2424457399680307</v>
+        <v>0.243225806558617</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2634631849260347</v>
+        <v>0.2639789709694262</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>134146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112299</v>
+        <v>112012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159860</v>
+        <v>159295</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03938293418422218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03296897103849255</v>
+        <v>0.03288475119437773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04693198731341453</v>
+        <v>0.04676612008281873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -2058,19 +2058,19 @@
         <v>118374</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97515</v>
+        <v>98218</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>141905</v>
+        <v>143558</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03346008799306548</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02756394075089345</v>
+        <v>0.02776274701345709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04011159234779616</v>
+        <v>0.04057889777997421</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>237</v>
@@ -2079,19 +2079,19 @@
         <v>252520</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>218724</v>
+        <v>220709</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>287180</v>
+        <v>286091</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03636540820985366</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03149844076115421</v>
+        <v>0.03178422493183417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0413568303335216</v>
+        <v>0.04119994528255568</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>604592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>588779</v>
+        <v>588250</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>618973</v>
+        <v>618378</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9041571164560915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8805086655380323</v>
+        <v>0.8797182085623764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9256643586410493</v>
+        <v>0.9247744641040887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>587</v>
@@ -2444,19 +2444,19 @@
         <v>594957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>577462</v>
+        <v>578917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>609153</v>
+        <v>610066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8906418986488386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8644527001249477</v>
+        <v>0.8666307222912409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9118933170275918</v>
+        <v>0.9132607590055422</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1170</v>
@@ -2465,19 +2465,19 @@
         <v>1199548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1177717</v>
+        <v>1176511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1222038</v>
+        <v>1220398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8974028980479095</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8810707390928223</v>
+        <v>0.880168775992719</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9142283494844963</v>
+        <v>0.9130013433535336</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>57388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43826</v>
+        <v>44887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72308</v>
+        <v>73928</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08582222627533705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06554162247104432</v>
+        <v>0.06712772130414921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1081354470856487</v>
+        <v>0.1105579850311849</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -2515,19 +2515,19 @@
         <v>64803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51827</v>
+        <v>50711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81311</v>
+        <v>80383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09700865365297731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07758473118642793</v>
+        <v>0.07591359936554774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1217219380083083</v>
+        <v>0.1203319041705448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -2536,19 +2536,19 @@
         <v>122190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102424</v>
+        <v>101411</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145236</v>
+        <v>145968</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09141263368078055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07662496939896284</v>
+        <v>0.07586731083579822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1086534410606439</v>
+        <v>0.1092013238879397</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>6701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2864</v>
+        <v>2873</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13131</v>
+        <v>12722</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01002065726857141</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004283381347536186</v>
+        <v>0.004296000522742846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01963778688711116</v>
+        <v>0.01902518819492046</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -2586,19 +2586,19 @@
         <v>8250</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3877</v>
+        <v>3656</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16388</v>
+        <v>16049</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01234944769818413</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005803498689903007</v>
+        <v>0.005472901380235026</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0245326549636361</v>
+        <v>0.02402549856115832</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -2607,19 +2607,19 @@
         <v>14950</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23181</v>
+        <v>24451</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01118446827130991</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006324019604679175</v>
+        <v>0.006481485271195122</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01734176928786992</v>
+        <v>0.01829204364681281</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>848843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>823290</v>
+        <v>825610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>873253</v>
+        <v>871936</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8336337694724221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8085384589510004</v>
+        <v>0.8108163477391721</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8576056717695608</v>
+        <v>0.8563128171916602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>807</v>
@@ -2732,19 +2732,19 @@
         <v>861652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>838431</v>
+        <v>835879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>890340</v>
+        <v>885115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.832540930766334</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8101047653719553</v>
+        <v>0.8076395570960775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8602600696620921</v>
+        <v>0.8552116904597216</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1597</v>
@@ -2753,19 +2753,19 @@
         <v>1710496</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1671402</v>
+        <v>1677654</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1742476</v>
+        <v>1745196</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8330829002078827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8140428175248579</v>
+        <v>0.8170876139077976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8486585202893187</v>
+        <v>0.8499833405671788</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>154756</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131775</v>
+        <v>133076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>177449</v>
+        <v>176997</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.151982954101225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1294141404684159</v>
+        <v>0.1306911583810066</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1742695720215979</v>
+        <v>0.1738255445393281</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>147</v>
@@ -2803,19 +2803,19 @@
         <v>157123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>130739</v>
+        <v>133920</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>180299</v>
+        <v>180895</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1518143082436419</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1263221917422995</v>
+        <v>0.1293952308120926</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1742072318006969</v>
+        <v>0.1747835552895296</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>290</v>
@@ -2824,19 +2824,19 @@
         <v>311879</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>278409</v>
+        <v>278629</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>347932</v>
+        <v>341563</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1518979444662103</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1355966410783631</v>
+        <v>0.135703841123575</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.169457220340258</v>
+        <v>0.1663555909629721</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>14646</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8262</v>
+        <v>8235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23364</v>
+        <v>23664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01438327642635296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008113515869281654</v>
+        <v>0.008087341258901723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02294522095035986</v>
+        <v>0.02324046112765479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2874,19 +2874,19 @@
         <v>16192</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9967</v>
+        <v>9521</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24836</v>
+        <v>25350</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01564476099002416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009630587600101664</v>
+        <v>0.009199199790574325</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02399700650227437</v>
+        <v>0.02449384077319942</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2895,19 +2895,19 @@
         <v>30838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20479</v>
+        <v>20634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44417</v>
+        <v>43110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01501915532590696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009973907980536195</v>
+        <v>0.0100496722463389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02163286329261998</v>
+        <v>0.02099617936003736</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>522523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>494161</v>
+        <v>495283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>546213</v>
+        <v>548514</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6907791562977387</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6532844826704152</v>
+        <v>0.654767894333451</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7220975789041435</v>
+        <v>0.7251398562232509</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>513</v>
@@ -3020,19 +3020,19 @@
         <v>543131</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>516664</v>
+        <v>518614</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>566507</v>
+        <v>570035</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6967475028571705</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6627942997467174</v>
+        <v>0.6652959420442451</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7267343428551067</v>
+        <v>0.7312605978471119</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>990</v>
@@ -3041,19 +3041,19 @@
         <v>1065654</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1027400</v>
+        <v>1028865</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1102954</v>
+        <v>1099389</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6938082071752344</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6689021842613018</v>
+        <v>0.6698560324975771</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7180926973754731</v>
+        <v>0.7157718298125662</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>201184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177408</v>
+        <v>177938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227535</v>
+        <v>228448</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2659664772885759</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2345350349879304</v>
+        <v>0.2352352513649981</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3008027055822542</v>
+        <v>0.3020104144180428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>195</v>
@@ -3091,19 +3091,19 @@
         <v>211365</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187365</v>
+        <v>184859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>235901</v>
+        <v>236002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2711460904236026</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.240358087935738</v>
+        <v>0.2371428729262065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3026215804244499</v>
+        <v>0.3027510751874984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>381</v>
@@ -3112,19 +3112,19 @@
         <v>412549</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>378694</v>
+        <v>378796</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>452069</v>
+        <v>447593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2685952307558067</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2465540436065996</v>
+        <v>0.2466202023263461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.294325206107646</v>
+        <v>0.2914112861765507</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>32719</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22756</v>
+        <v>22058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47965</v>
+        <v>44913</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04325436641368544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.030083209753218</v>
+        <v>0.02916048524854343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06340975098594474</v>
+        <v>0.05937555392290149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -3162,19 +3162,19 @@
         <v>25028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15972</v>
+        <v>15584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35761</v>
+        <v>37068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03210640671922701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02048963698374243</v>
+        <v>0.01999214974240203</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04587509861606982</v>
+        <v>0.04755252709357656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -3183,19 +3183,19 @@
         <v>57746</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43931</v>
+        <v>45026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75702</v>
+        <v>75595</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03759656206895886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0286016152449018</v>
+        <v>0.02931478570028779</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04928655118254358</v>
+        <v>0.04921737976922408</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>600177</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>570926</v>
+        <v>572770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>628294</v>
+        <v>628563</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6430906835455021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6117490729581342</v>
+        <v>0.6137243060784524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6732188549539303</v>
+        <v>0.6735073031704857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>622</v>
@@ -3308,19 +3308,19 @@
         <v>676765</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>644014</v>
+        <v>645180</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>706139</v>
+        <v>707353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6558929207722846</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.624151875909405</v>
+        <v>0.6252814742924862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6843610620769309</v>
+        <v>0.6855367682670995</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1220</v>
@@ -3329,19 +3329,19 @@
         <v>1276942</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1230912</v>
+        <v>1235601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1320241</v>
+        <v>1316768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.649812832994096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6263889196069647</v>
+        <v>0.6287749285828121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6718467540249063</v>
+        <v>0.670079447404149</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>269586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243219</v>
+        <v>241613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>297337</v>
+        <v>297942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2888616142955881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2606094268931284</v>
+        <v>0.2588883818688058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3185976069931993</v>
+        <v>0.3192452765271836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>263</v>
@@ -3379,19 +3379,19 @@
         <v>285157</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>257322</v>
+        <v>257291</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>317572</v>
+        <v>318821</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2763623887130258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.249385693377494</v>
+        <v>0.2493555717465413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3077774398422142</v>
+        <v>0.3089881688214343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>532</v>
@@ -3400,19 +3400,19 @@
         <v>554743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>514513</v>
+        <v>518390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>599306</v>
+        <v>595912</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2822985690348819</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2618264319301526</v>
+        <v>0.2637995548732439</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3049761059432741</v>
+        <v>0.3032487736398086</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>63507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48942</v>
+        <v>48434</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80190</v>
+        <v>79214</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06804770215890976</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05244197590545511</v>
+        <v>0.05189676082890697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08592396630195256</v>
+        <v>0.08487835442473937</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -3450,19 +3450,19 @@
         <v>69901</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53435</v>
+        <v>54891</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>88722</v>
+        <v>89649</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06774469051468961</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05178692747031704</v>
+        <v>0.05319761443732788</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08598609036784569</v>
+        <v>0.08688384613982041</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>124</v>
@@ -3471,19 +3471,19 @@
         <v>133407</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>112737</v>
+        <v>112848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>158932</v>
+        <v>158542</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06788859797102213</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05737003605738969</v>
+        <v>0.05742649044851438</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08087761601086843</v>
+        <v>0.08067905409489264</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>2576134</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2524021</v>
+        <v>2526255</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2620936</v>
+        <v>2626530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.762933090382628</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7474995915107464</v>
+        <v>0.7481611235077689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7762012651922908</v>
+        <v>0.777857870607117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2529</v>
@@ -3596,19 +3596,19 @@
         <v>2676505</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2625978</v>
+        <v>2623490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2728191</v>
+        <v>2729567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7615993079400444</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7472217051422017</v>
+        <v>0.7465137650495378</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7763064075225442</v>
+        <v>0.7766979750675779</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4977</v>
@@ -3617,19 +3617,19 @@
         <v>5252640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5178387</v>
+        <v>5176604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5325083</v>
+        <v>5320428</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7622528725914741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7514775178680562</v>
+        <v>0.7512187794519716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7727657252626221</v>
+        <v>0.7720901815336111</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>682913</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>642098</v>
+        <v>637988</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>732632</v>
+        <v>730939</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2022475199120878</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1901601761468751</v>
+        <v>0.1889428634260032</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2169720351652262</v>
+        <v>0.2164707092924227</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>671</v>
@@ -3667,19 +3667,19 @@
         <v>718447</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>671560</v>
+        <v>667423</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>768298</v>
+        <v>768258</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2044340899926015</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1910924710427391</v>
+        <v>0.1899151831220894</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2186190229197416</v>
+        <v>0.2186078787320696</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1325</v>
@@ -3688,19 +3688,19 @@
         <v>1401360</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1328700</v>
+        <v>1330378</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1465644</v>
+        <v>1473593</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2033626522026951</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1928184385270017</v>
+        <v>0.1930618623512411</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2126914434445805</v>
+        <v>0.2138448898156615</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>117572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97630</v>
+        <v>98605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139882</v>
+        <v>141456</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03481938970528423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0289134455982817</v>
+        <v>0.02920224421283763</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04142664327224954</v>
+        <v>0.04189283501976057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -3738,19 +3738,19 @@
         <v>119370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96831</v>
+        <v>99544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142817</v>
+        <v>146077</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03396660206735412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02755316337589103</v>
+        <v>0.02832537594458865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.040638422704732</v>
+        <v>0.04156616417960877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -3759,19 +3759,19 @@
         <v>236941</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>205514</v>
+        <v>206654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>268337</v>
+        <v>268076</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03438447520583074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02982378766102469</v>
+        <v>0.02998925571051489</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0389404960158222</v>
+        <v>0.03890261255641407</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>662921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>649865</v>
+        <v>649299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>671861</v>
+        <v>672226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9618698938213847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9429259969267151</v>
+        <v>0.9421060449086988</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.974841495784759</v>
+        <v>0.9753721279077481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1190</v>
@@ -4124,19 +4124,19 @@
         <v>699765</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>685951</v>
+        <v>687658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>708853</v>
+        <v>708891</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9531239187660231</v>
+        <v>0.9531239187660233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9343096010552912</v>
+        <v>0.9366334007039971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9655027446398563</v>
+        <v>0.9655546312831955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1892</v>
@@ -4145,19 +4145,19 @@
         <v>1362685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1345517</v>
+        <v>1345059</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1376095</v>
+        <v>1376403</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9573587174018537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9452968533433554</v>
+        <v>0.9449756407189148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9667795741357659</v>
+        <v>0.9669963802501726</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>24422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15860</v>
+        <v>15897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36507</v>
+        <v>37439</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03543474785218907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02301178552224476</v>
+        <v>0.02306651452595878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05296982130043284</v>
+        <v>0.05432225707671446</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -4195,19 +4195,19 @@
         <v>27935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19959</v>
+        <v>20513</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37837</v>
+        <v>38869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03804931814285398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02718512816745389</v>
+        <v>0.0279400254765608</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05153633886361903</v>
+        <v>0.05294150351720243</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -4216,19 +4216,19 @@
         <v>52357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41123</v>
+        <v>39938</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68615</v>
+        <v>68505</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03678334395128536</v>
+        <v>0.03678334395128537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02889095914152583</v>
+        <v>0.02805859312424942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04820569685318901</v>
+        <v>0.04812854049725374</v>
       </c>
     </row>
     <row r="6">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7881</v>
+        <v>7732</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002695358326426134</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01143471583394783</v>
+        <v>0.01121922561082669</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -4266,19 +4266,19 @@
         <v>6480</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2547</v>
+        <v>2441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17164</v>
+        <v>19127</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00882676309112275</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003469113737916506</v>
+        <v>0.003324607289907191</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0233782614223058</v>
+        <v>0.02605201157232342</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -4287,19 +4287,19 @@
         <v>8338</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3681</v>
+        <v>3284</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20909</v>
+        <v>18540</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005857938646860895</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00258595995562506</v>
+        <v>0.002307161594115395</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01468971527878226</v>
+        <v>0.01302520565047741</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>939552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>914205</v>
+        <v>915545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>959643</v>
+        <v>958666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8965929076599551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8724047487576614</v>
+        <v>0.8736835645555712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9157653372214046</v>
+        <v>0.9148327029879242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1349</v>
@@ -4412,19 +4412,19 @@
         <v>950264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>927889</v>
+        <v>927180</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>967852</v>
+        <v>967502</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8896834375387295</v>
+        <v>0.8896834375387296</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8687348577218471</v>
+        <v>0.8680713897360924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9061504221157912</v>
+        <v>0.9058223647730596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2217</v>
@@ -4433,19 +4433,19 @@
         <v>1889816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1859972</v>
+        <v>1861849</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1916024</v>
+        <v>1918769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8931052294896665</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8790011055736927</v>
+        <v>0.8798884456659807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9054905841214104</v>
+        <v>0.9067882317264155</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>68598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>50852</v>
+        <v>51646</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86054</v>
+        <v>87176</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06546154014757384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04852692056383717</v>
+        <v>0.04928430347770697</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08211923426938562</v>
+        <v>0.08318971582906165</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -4483,19 +4483,19 @@
         <v>90217</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>76301</v>
+        <v>76052</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110919</v>
+        <v>108882</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08446597267163333</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0714366991267535</v>
+        <v>0.07120339690816514</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1038474364957097</v>
+        <v>0.1019409432554131</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>191</v>
@@ -4504,19 +4504,19 @@
         <v>158815</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>135417</v>
+        <v>136320</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>182406</v>
+        <v>184156</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07505436612264717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0639963240497622</v>
+        <v>0.06442316212572259</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08620275157885376</v>
+        <v>0.0870300513934104</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>39764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27983</v>
+        <v>27441</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58021</v>
+        <v>55661</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03794555219247087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02670388655764364</v>
+        <v>0.02618645027755787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05536799400544296</v>
+        <v>0.05311613168622766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -4554,19 +4554,19 @@
         <v>27611</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19460</v>
+        <v>19047</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43397</v>
+        <v>44248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02585058978963719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01821905512655705</v>
+        <v>0.01783253019986366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04063001221776222</v>
+        <v>0.04142692503731984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -4575,19 +4575,19 @@
         <v>67374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51332</v>
+        <v>52000</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85318</v>
+        <v>86653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03184040438768632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02425902430982302</v>
+        <v>0.02457467948725183</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04032016397487059</v>
+        <v>0.04095124034075169</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>604724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>574793</v>
+        <v>572130</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>636702</v>
+        <v>631072</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7590750004004145</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7215040912809025</v>
+        <v>0.7181613265890993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7992148516712257</v>
+        <v>0.7921486115679821</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>818</v>
@@ -4700,19 +4700,19 @@
         <v>620369</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>597225</v>
+        <v>596306</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>642991</v>
+        <v>643527</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7675295278361642</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7388963011436172</v>
+        <v>0.737759269508133</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7955186187864784</v>
+        <v>0.7961807419781877</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1332</v>
@@ -4721,19 +4721,19 @@
         <v>1225092</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1185286</v>
+        <v>1188690</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1258151</v>
+        <v>1261432</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.763332837894754</v>
+        <v>0.7633328378947543</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7385306438757231</v>
+        <v>0.7406514561446799</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7839310569715308</v>
+        <v>0.7859754541091609</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>152324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125092</v>
+        <v>129091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180161</v>
+        <v>183873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1912030211751236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.157021236436103</v>
+        <v>0.1620403206434899</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2261458911149979</v>
+        <v>0.2308050346196716</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>178</v>
@@ -4771,19 +4771,19 @@
         <v>152792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131549</v>
+        <v>130682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176544</v>
+        <v>176896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1890361208722945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1627547741263732</v>
+        <v>0.1616821273772894</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2184232390789368</v>
+        <v>0.2188584882246633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>306</v>
@@ -4792,19 +4792,19 @@
         <v>305115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>273773</v>
+        <v>271881</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>339433</v>
+        <v>341284</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1901117349470054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1705832192752112</v>
+        <v>0.1694042369501093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2114943989267334</v>
+        <v>0.2126478321620662</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>39611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25519</v>
+        <v>26877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60573</v>
+        <v>59819</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04972197842446172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03203264352023969</v>
+        <v>0.03373707811262662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07603365300770155</v>
+        <v>0.07508767469711539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -4842,19 +4842,19 @@
         <v>35107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25583</v>
+        <v>26572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46513</v>
+        <v>47694</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04343435129154121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0316516719794781</v>
+        <v>0.03287526371367157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0575463774576378</v>
+        <v>0.05900737989894466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -4863,19 +4863,19 @@
         <v>74718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59386</v>
+        <v>57136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>97507</v>
+        <v>98548</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04655542715824051</v>
+        <v>0.04655542715824052</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03700245557329836</v>
+        <v>0.03560038838477889</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06075512716009294</v>
+        <v>0.06140326368696096</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>719156</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>687131</v>
+        <v>690913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>750240</v>
+        <v>749722</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7292343779134347</v>
+        <v>0.7292343779134348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6967602907103952</v>
+        <v>0.700595609884455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7607539297170961</v>
+        <v>0.7602288522525303</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1090</v>
@@ -4988,19 +4988,19 @@
         <v>766094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>739375</v>
+        <v>739719</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>795518</v>
+        <v>795000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6874070830310768</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.66343278108464</v>
+        <v>0.663741536947699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7138085896346844</v>
+        <v>0.7133444052835236</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1830</v>
@@ -5009,19 +5009,19 @@
         <v>1485250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1442563</v>
+        <v>1442975</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1525331</v>
+        <v>1525064</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.707043508267723</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6867227301963418</v>
+        <v>0.6869188157493012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7261234798704642</v>
+        <v>0.7259964000494896</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>189824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164247</v>
+        <v>166677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>221219</v>
+        <v>218824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1924839603683557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1665490247201143</v>
+        <v>0.169013120085962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2243190639173613</v>
+        <v>0.2218909762785619</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>339</v>
@@ -5059,19 +5059,19 @@
         <v>246376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>222327</v>
+        <v>222339</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269934</v>
+        <v>271508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2210702153626679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1994913718045996</v>
+        <v>0.1995022632895729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2422089418480396</v>
+        <v>0.2436209640927589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>529</v>
@@ -5080,19 +5080,19 @@
         <v>436200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401062</v>
+        <v>403773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>470550</v>
+        <v>472882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2076499867638475</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1909228296634436</v>
+        <v>0.1922134671082364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2240020924939303</v>
+        <v>0.225112121950201</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>77200</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60117</v>
+        <v>59406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>97412</v>
+        <v>98817</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07828166171820938</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06095938207686201</v>
+        <v>0.06023889646505452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09877694687472917</v>
+        <v>0.1002021404695667</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>126</v>
@@ -5130,19 +5130,19 @@
         <v>101999</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86097</v>
+        <v>83821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>122967</v>
+        <v>122089</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09152270160625513</v>
+        <v>0.09152270160625514</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07725420924920104</v>
+        <v>0.07521158695411284</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.110337170307339</v>
+        <v>0.1095493073873432</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -5151,19 +5151,19 @@
         <v>179199</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>154341</v>
+        <v>152236</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>206945</v>
+        <v>205557</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08530650496842938</v>
+        <v>0.08530650496842937</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0734728210466413</v>
+        <v>0.07247076688244877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09851478292365899</v>
+        <v>0.09785387394705315</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>2926353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2875328</v>
+        <v>2872282</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2973208</v>
+        <v>2972460</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8313614763680242</v>
+        <v>0.831361476368024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8168655812059036</v>
+        <v>0.8160002403996081</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8446727826651875</v>
+        <v>0.8444600752028508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4447</v>
@@ -5276,19 +5276,19 @@
         <v>3036490</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2994553</v>
+        <v>2990335</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3079951</v>
+        <v>3078856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8151635890701638</v>
+        <v>0.8151635890701637</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8039052685931314</v>
+        <v>0.8027729949919615</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8268308604743229</v>
+        <v>0.8265368402134564</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7271</v>
@@ -5297,19 +5297,19 @@
         <v>5962844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5883123</v>
+        <v>5894034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6027095</v>
+        <v>6028079</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8230333084672958</v>
+        <v>0.8230333084672959</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8120295889081935</v>
+        <v>0.8135356193427661</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8319016724129434</v>
+        <v>0.8320374172495986</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>435167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>395526</v>
+        <v>396628</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>479564</v>
+        <v>482248</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1236286678695392</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1123669678639861</v>
+        <v>0.1126799395777273</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1362415400567086</v>
+        <v>0.1370041353140567</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>691</v>
@@ -5347,19 +5347,19 @@
         <v>517320</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>478456</v>
+        <v>480258</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>555159</v>
+        <v>557839</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1388775743065849</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.128444379339386</v>
+        <v>0.1289281668658604</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1490356235089779</v>
+        <v>0.1497551459072106</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1094</v>
@@ -5368,19 +5368,19 @@
         <v>952487</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>891423</v>
+        <v>895342</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1018778</v>
+        <v>1014750</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1314689158460138</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1230404649158835</v>
+        <v>0.123581409258676</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1406187891380551</v>
+        <v>0.1400629143140847</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>158433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131108</v>
+        <v>130220</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>188104</v>
+        <v>189027</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04500985576243664</v>
+        <v>0.04500985576243663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03724708621957166</v>
+        <v>0.03699486002208777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05343947107493113</v>
+        <v>0.05370148303831883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>211</v>
@@ -5418,19 +5418,19 @@
         <v>171197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148567</v>
+        <v>149372</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>198648</v>
+        <v>197246</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04595883662325134</v>
+        <v>0.04595883662325133</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03988359875986132</v>
+        <v>0.04009971295144013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05332821443954092</v>
+        <v>0.05295177105634827</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>347</v>
@@ -5439,19 +5439,19 @@
         <v>329630</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>291431</v>
+        <v>293278</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371921</v>
+        <v>369770</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04549777568669035</v>
+        <v>0.04549777568669037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04022529488135361</v>
+        <v>0.04048029251754316</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0513350956481524</v>
+        <v>0.05103820885631264</v>
       </c>
     </row>
     <row r="23">
